--- a/resources/Dates_107.xlsx
+++ b/resources/Dates_107.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>44208</v>
+        <v>44573</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>44210</v>
+        <v>44575</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>44213</v>
+        <v>44578</v>
       </c>
       <c r="D4" t="s">
         <v>82</v>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>44215</v>
+        <v>44580</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -787,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>44220</v>
+        <v>44585</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>44222</v>
+        <v>44587</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>44224</v>
+        <v>44589</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>44227</v>
+        <v>44592</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>44229</v>
+        <v>44594</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>44231</v>
+        <v>44596</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>44234</v>
+        <v>44599</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>44236</v>
+        <v>44601</v>
       </c>
       <c r="D14" t="s">
         <v>85</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>44238</v>
+        <v>44603</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>44241</v>
+        <v>44606</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>44243</v>
+        <v>44608</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>44245</v>
+        <v>44610</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>44248</v>
+        <v>44613</v>
       </c>
       <c r="D19" t="s">
         <v>64</v>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>44250</v>
+        <v>44615</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>44252</v>
+        <v>44617</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>44255</v>
+        <v>44620</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>44257</v>
+        <v>44622</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>44259</v>
+        <v>44624</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>44262</v>
+        <v>44627</v>
       </c>
       <c r="D25" t="s">
         <v>83</v>
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="1">
-        <v>44264</v>
+        <v>44629</v>
       </c>
       <c r="D26" t="s">
         <v>83</v>
@@ -1106,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>44266</v>
+        <v>44631</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>44269</v>
+        <v>44634</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1">
-        <v>44271</v>
+        <v>44636</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1154,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>44273</v>
+        <v>44638</v>
       </c>
       <c r="D30" t="s">
         <v>71</v>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>44276</v>
+        <v>44641</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -1188,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="1">
-        <v>44278</v>
+        <v>44643</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -1205,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>44280</v>
+        <v>44645</v>
       </c>
       <c r="D33" t="s">
         <v>85</v>
@@ -1219,7 +1219,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>44283</v>
+        <v>44648</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -1236,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="1">
-        <v>44285</v>
+        <v>44650</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1253,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="1">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>44290</v>
+        <v>44655</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="1">
-        <v>44292</v>
+        <v>44657</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="1">
-        <v>44294</v>
+        <v>44659</v>
       </c>
       <c r="D39" t="s">
         <v>69</v>
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>44297</v>
+        <v>44662</v>
       </c>
       <c r="D40" t="s">
         <v>53</v>
@@ -1326,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>44299</v>
+        <v>44664</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -1337,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="1">
-        <v>44301</v>
+        <v>44666</v>
       </c>
       <c r="D42" t="s">
         <v>84</v>
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>44304</v>
+        <v>44669</v>
       </c>
       <c r="D43" t="s">
         <v>53</v>
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="1">
-        <v>44306</v>
+        <v>44671</v>
       </c>
       <c r="D44" t="s">
         <v>53</v>
@@ -1370,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="1">
-        <v>44308</v>
+        <v>44673</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>

--- a/resources/Dates_107.xlsx
+++ b/resources/Dates_107.xlsx
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,9 +899,6 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -914,7 +911,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -931,7 +928,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -948,7 +945,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -965,7 +962,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -982,7 +979,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -999,7 +996,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1016,7 +1013,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1033,7 +1030,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1067,7 +1064,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1165,7 +1162,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -1182,7 +1179,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1198,9 +1195,6 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>28</v>
-      </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1207,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -1230,7 +1224,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1247,7 +1241,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1264,7 +1258,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -1281,7 +1275,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1298,7 +1292,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1307,10 +1301,13 @@
         <v>44659</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>33</v>
+      </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
@@ -1322,6 +1319,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>34</v>
+      </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -1344,6 +1344,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>35</v>
+      </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>44671</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
